--- a/Supplement/TABLE_S4.xlsx
+++ b/Supplement/TABLE_S4.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_CRV_2024/Supplement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Coast_Range_2024/Supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F4A29C-E7E8-494F-A531-068B46F941DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AA181-4CEE-154B-B567-5C96F8744D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="1960" windowWidth="22040" windowHeight="17360" xr2:uid="{34C275C4-9001-D545-9BDE-3BE782608C09}"/>
+    <workbookView xWindow="38200" yWindow="-28260" windowWidth="22040" windowHeight="17360" xr2:uid="{34C275C4-9001-D545-9BDE-3BE782608C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="162">
   <si>
     <t>Name</t>
   </si>
@@ -50,15 +50,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Legacy_Age</t>
-  </si>
-  <si>
-    <t>Legacy_Age_2s</t>
-  </si>
-  <si>
-    <t>Legacy_Age_type_and_citation</t>
-  </si>
-  <si>
     <t>Lichau Creek Tuff</t>
   </si>
   <si>
@@ -212,15 +203,9 @@
     <t>HB_</t>
   </si>
   <si>
-    <t>Half moon bay</t>
-  </si>
-  <si>
     <t>field</t>
   </si>
   <si>
-    <t>Mack, Classen,Stanley</t>
-  </si>
-  <si>
     <t>MB_</t>
   </si>
   <si>
@@ -513,6 +498,30 @@
   </si>
   <si>
     <t>K-Ar, reported in Pampeyan, 1993 and Wakabayashi, 1999</t>
+  </si>
+  <si>
+    <t>Half Moon Bay</t>
+  </si>
+  <si>
+    <t>Mack,1959; Classen,1959; Reported in Stanley et al., 2000</t>
+  </si>
+  <si>
+    <t>Other_Age</t>
+  </si>
+  <si>
+    <t>Other_Age_2s</t>
+  </si>
+  <si>
+    <t>Other_Age_type_and_citation</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>New Idria alkali basalt dikes</t>
+  </si>
+  <si>
+    <t>K-Ar,reported in Coleman et al., 2022</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33588ED0-B73E-F04D-843C-B5D200C42912}">
-  <dimension ref="A1:BW59"/>
+  <dimension ref="A1:BW60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1041,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
@@ -1114,13 +1123,13 @@
     </row>
     <row r="2" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7">
         <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="7">
         <v>8.3121589999999994</v>
@@ -1135,7 +1144,7 @@
         <v>0.22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1206,13 +1215,13 @@
     </row>
     <row r="3" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7">
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" s="7">
         <v>38.236550000000001</v>
@@ -1227,7 +1236,7 @@
         <v>0.08</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1298,13 +1307,13 @@
     </row>
     <row r="4" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7">
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
         <v>38.293107999999997</v>
@@ -1319,7 +1328,7 @@
         <v>0.12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1390,13 +1399,13 @@
     </row>
     <row r="5" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
         <v>38.313226077882298</v>
@@ -1411,7 +1420,7 @@
         <v>0.08</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1482,13 +1491,13 @@
     </row>
     <row r="6" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7">
         <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>38.3195415328235</v>
@@ -1503,7 +1512,7 @@
         <v>0.02</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1574,13 +1583,13 @@
     </row>
     <row r="7" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7">
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
         <v>38.318477200567202</v>
@@ -1595,7 +1604,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1666,13 +1675,13 @@
     </row>
     <row r="8" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="7">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
         <v>38.290773634064202</v>
@@ -1687,7 +1696,7 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1758,13 +1767,13 @@
     </row>
     <row r="9" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="7">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="11">
         <v>38.206434000000002</v>
@@ -1779,7 +1788,7 @@
         <v>1.66E-2</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1850,13 +1859,13 @@
     </row>
     <row r="10" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11">
         <v>38.002104000000003</v>
@@ -1871,7 +1880,7 @@
         <v>0.24</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1942,13 +1951,13 @@
     </row>
     <row r="11" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="7">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="11">
         <v>37.757258999999998</v>
@@ -1963,7 +1972,7 @@
         <v>0.13</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2034,13 +2043,13 @@
     </row>
     <row r="12" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11">
         <v>37.54</v>
@@ -2055,7 +2064,7 @@
         <v>0.34</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2126,13 +2135,13 @@
     </row>
     <row r="13" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D13" s="11">
         <v>37.399157000000002</v>
@@ -2147,7 +2156,7 @@
         <v>2</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2216,30 +2225,27 @@
       <c r="BV13" s="9"/>
       <c r="BW13" s="9"/>
     </row>
-    <row r="14" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="B14" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="7">
-        <v>36.56</v>
+        <v>160</v>
+      </c>
+      <c r="D14" s="11">
+        <v>36.39</v>
       </c>
       <c r="E14" s="7">
-        <v>-121.94</v>
+        <v>-120.62</v>
       </c>
       <c r="F14" s="7">
-        <v>27.1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1.6</v>
+        <v>14</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2310,22 +2316,28 @@
     </row>
     <row r="15" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>35.49</v>
+        <v>36.56</v>
       </c>
       <c r="E15" s="7">
-        <v>-120.83</v>
+        <v>-121.94</v>
+      </c>
+      <c r="F15" s="7">
+        <v>27.1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1.6</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2396,28 +2408,25 @@
     </row>
     <row r="16" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7">
         <v>20</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>35.32</v>
+        <v>35.49</v>
       </c>
       <c r="E16" s="7">
-        <v>-120.73</v>
-      </c>
-      <c r="F16" s="7">
-        <v>26.5</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.5</v>
+        <v>-120.83</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2488,19 +2497,19 @@
     </row>
     <row r="17" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
         <v>35.32</v>
       </c>
       <c r="E17" s="7">
-        <v>-120.22</v>
+        <v>-120.73</v>
       </c>
       <c r="F17" s="7">
         <v>26.5</v>
@@ -2509,7 +2518,7 @@
         <v>0.5</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2580,28 +2589,28 @@
     </row>
     <row r="18" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="7">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>34.71</v>
+        <v>35.32</v>
       </c>
       <c r="E18" s="7">
-        <v>-119.2</v>
+        <v>-120.22</v>
       </c>
       <c r="F18" s="7">
-        <v>25.1</v>
+        <v>26.5</v>
       </c>
       <c r="G18" s="7">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2672,28 +2681,28 @@
     </row>
     <row r="19" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D19" s="7">
-        <v>34.26</v>
+        <v>34.71</v>
       </c>
       <c r="E19" s="7">
-        <v>-117.6</v>
+        <v>-119.2</v>
       </c>
       <c r="F19" s="7">
-        <v>26.3</v>
+        <v>25.1</v>
       </c>
       <c r="G19" s="7">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2764,28 +2773,28 @@
     </row>
     <row r="20" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B20" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7">
-        <v>34.1</v>
+        <v>34.26</v>
       </c>
       <c r="E20" s="7">
-        <v>-117.78</v>
+        <v>-117.6</v>
       </c>
       <c r="F20" s="7">
-        <v>27.3</v>
+        <v>26.3</v>
       </c>
       <c r="G20" s="7">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2856,28 +2865,28 @@
     </row>
     <row r="21" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D21" s="7">
-        <v>38.86</v>
+        <v>34.1</v>
       </c>
       <c r="E21" s="7">
-        <v>-123.65</v>
+        <v>-117.78</v>
       </c>
       <c r="F21" s="7">
-        <v>23.4</v>
+        <v>27.3</v>
       </c>
       <c r="G21" s="7">
-        <v>2.2000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2948,25 +2957,28 @@
     </row>
     <row r="22" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B22" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7">
-        <v>37.47</v>
+        <v>38.86</v>
       </c>
       <c r="E22" s="7">
-        <v>-122.38</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>-123.65</v>
+      </c>
+      <c r="F22" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2.2000000000000002</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -3037,28 +3049,25 @@
     </row>
     <row r="23" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7">
         <v>16</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D23" s="7">
-        <v>37.33</v>
+        <v>37.47</v>
       </c>
       <c r="E23" s="7">
-        <v>-122.25</v>
-      </c>
-      <c r="F23" s="7">
-        <v>20.2</v>
-      </c>
-      <c r="G23" s="7">
-        <v>2.4</v>
+        <v>-122.38</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -3129,28 +3138,28 @@
     </row>
     <row r="24" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7">
         <v>16</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D24" s="7">
-        <v>37.270000000000003</v>
+        <v>37.33</v>
       </c>
       <c r="E24" s="7">
-        <v>-122.41</v>
+        <v>-122.25</v>
       </c>
       <c r="F24" s="7">
-        <v>22</v>
+        <v>20.2</v>
       </c>
       <c r="G24" s="7">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -3221,28 +3230,28 @@
     </row>
     <row r="25" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B25" s="7">
         <v>16</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D25" s="7">
-        <v>37.119999999999997</v>
+        <v>37.270000000000003</v>
       </c>
       <c r="E25" s="7">
-        <v>-122.02</v>
+        <v>-122.41</v>
       </c>
       <c r="F25" s="7">
-        <v>23.7</v>
+        <v>22</v>
       </c>
       <c r="G25" s="7">
         <v>1.4</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -3313,28 +3322,28 @@
     </row>
     <row r="26" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D26" s="7">
-        <v>36.82</v>
+        <v>37.119999999999997</v>
       </c>
       <c r="E26" s="7">
-        <v>-121.55</v>
+        <v>-122.02</v>
       </c>
       <c r="F26" s="7">
-        <v>22.2</v>
+        <v>23.7</v>
       </c>
       <c r="G26" s="7">
         <v>1.4</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3405,28 +3414,28 @@
     </row>
     <row r="27" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D27" s="7">
-        <v>36.799999999999997</v>
+        <v>36.82</v>
       </c>
       <c r="E27" s="7">
-        <v>-122</v>
+        <v>-121.55</v>
       </c>
       <c r="F27" s="7">
-        <v>23.7</v>
+        <v>22.2</v>
       </c>
       <c r="G27" s="7">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -3497,28 +3506,28 @@
     </row>
     <row r="28" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B28" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7">
-        <v>36.47</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E28" s="7">
-        <v>-121.18</v>
+        <v>-122</v>
       </c>
       <c r="F28" s="7">
-        <v>22.82</v>
+        <v>23.7</v>
       </c>
       <c r="G28" s="7">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -3589,28 +3598,28 @@
     </row>
     <row r="29" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B29" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7">
-        <v>35.92</v>
+        <v>36.47</v>
       </c>
       <c r="E29" s="7">
-        <v>-120.5</v>
+        <v>-121.18</v>
       </c>
       <c r="F29" s="7">
-        <v>23.8</v>
+        <v>22.82</v>
       </c>
       <c r="G29" s="7">
-        <v>0.7</v>
+        <v>0.32</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -3681,28 +3690,28 @@
     </row>
     <row r="30" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B30" s="7">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D30" s="7">
-        <v>35.18</v>
+        <v>35.92</v>
       </c>
       <c r="E30" s="7">
-        <v>-120.21</v>
+        <v>-120.5</v>
       </c>
       <c r="F30" s="7">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="G30" s="7">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -3773,28 +3782,28 @@
     </row>
     <row r="31" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B31" s="7">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D31" s="7">
-        <v>34.97</v>
+        <v>35.18</v>
       </c>
       <c r="E31" s="7">
-        <v>-118.79</v>
+        <v>-120.21</v>
       </c>
       <c r="F31" s="7">
         <v>22.9</v>
       </c>
       <c r="G31" s="7">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -3865,28 +3874,28 @@
     </row>
     <row r="32" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B32" s="7">
         <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D32" s="7">
-        <v>34.93</v>
+        <v>34.97</v>
       </c>
       <c r="E32" s="7">
-        <v>-118.98</v>
+        <v>-118.79</v>
       </c>
       <c r="F32" s="7">
-        <v>22.4</v>
+        <v>22.9</v>
       </c>
       <c r="G32" s="7">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -3957,28 +3966,28 @@
     </row>
     <row r="33" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B33" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D33" s="7">
-        <v>34.78</v>
+        <v>34.93</v>
       </c>
       <c r="E33" s="7">
-        <v>-119.09</v>
+        <v>-118.98</v>
       </c>
       <c r="F33" s="7">
-        <v>23.1</v>
+        <v>22.4</v>
       </c>
       <c r="G33" s="7">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -4049,28 +4058,28 @@
     </row>
     <row r="34" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B34" s="7">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D34" s="7">
-        <v>34.75</v>
+        <v>34.78</v>
       </c>
       <c r="E34" s="7">
-        <v>-118.55</v>
+        <v>-119.09</v>
       </c>
       <c r="F34" s="7">
-        <v>23.55</v>
+        <v>23.1</v>
       </c>
       <c r="G34" s="7">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -4141,28 +4150,28 @@
     </row>
     <row r="35" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B35" s="7">
         <v>33</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D35" s="7">
-        <v>34.47</v>
+        <v>34.75</v>
       </c>
       <c r="E35" s="7">
-        <v>-118.29</v>
+        <v>-118.55</v>
       </c>
       <c r="F35" s="7">
-        <v>23.6</v>
+        <v>23.55</v>
       </c>
       <c r="G35" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -4233,25 +4242,25 @@
     </row>
     <row r="36" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B36" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D36" s="7">
-        <v>33.549999999999997</v>
+        <v>34.47</v>
       </c>
       <c r="E36" s="7">
-        <v>-115.68</v>
+        <v>-118.29</v>
       </c>
       <c r="F36" s="7">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="G36" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>91</v>
@@ -4325,28 +4334,28 @@
     </row>
     <row r="37" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B37" s="7">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D37" s="7">
-        <v>35.26</v>
+        <v>33.549999999999997</v>
       </c>
       <c r="E37" s="7">
-        <v>-120.55</v>
+        <v>-115.68</v>
       </c>
       <c r="F37" s="7">
-        <v>17</v>
+        <v>22.6</v>
       </c>
       <c r="G37" s="7">
         <v>1</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -4417,28 +4426,28 @@
     </row>
     <row r="38" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B38" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D38" s="7">
-        <v>35.08</v>
+        <v>35.26</v>
       </c>
       <c r="E38" s="7">
-        <v>-120.77</v>
+        <v>-120.55</v>
       </c>
       <c r="F38" s="7">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="G38" s="7">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -4509,28 +4518,28 @@
     </row>
     <row r="39" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B39" s="7">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D39" s="7">
-        <v>35</v>
+        <v>35.08</v>
       </c>
       <c r="E39" s="7">
-        <v>-119.59</v>
+        <v>-120.77</v>
       </c>
       <c r="F39" s="7">
-        <v>14.8</v>
+        <v>16.7</v>
       </c>
       <c r="G39" s="7">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -4601,28 +4610,28 @@
     </row>
     <row r="40" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B40" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D40" s="7">
-        <v>34.76</v>
+        <v>35</v>
       </c>
       <c r="E40" s="7">
-        <v>-119.98</v>
+        <v>-119.59</v>
       </c>
       <c r="F40" s="7">
-        <v>18.8</v>
+        <v>14.8</v>
       </c>
       <c r="G40" s="7">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -4693,28 +4702,28 @@
     </row>
     <row r="41" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B41" s="7">
         <v>18</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D41" s="7">
-        <v>34.700000000000003</v>
+        <v>34.76</v>
       </c>
       <c r="E41" s="7">
-        <v>-119.88</v>
+        <v>-119.98</v>
       </c>
       <c r="F41" s="7">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="G41" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -4785,28 +4794,28 @@
     </row>
     <row r="42" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B42" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D42" s="7">
-        <v>34.61</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E42" s="7">
-        <v>-120.26</v>
+        <v>-119.88</v>
       </c>
       <c r="F42" s="7">
-        <v>17.399999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="G42" s="7">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -4877,28 +4886,28 @@
     </row>
     <row r="43" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B43" s="7">
         <v>30</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D43" s="7">
-        <v>34.58</v>
+        <v>34.61</v>
       </c>
       <c r="E43" s="7">
-        <v>-120.56</v>
+        <v>-120.26</v>
       </c>
       <c r="F43" s="7">
-        <v>17.39</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G43" s="7">
-        <v>0.12</v>
+        <v>2.4</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -4969,28 +4978,28 @@
     </row>
     <row r="44" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B44" s="7">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D44" s="7">
-        <v>34.17</v>
+        <v>34.58</v>
       </c>
       <c r="E44" s="7">
-        <v>-118.92</v>
+        <v>-120.56</v>
       </c>
       <c r="F44" s="7">
-        <v>16</v>
+        <v>17.39</v>
       </c>
       <c r="G44" s="7">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -5061,28 +5070,28 @@
     </row>
     <row r="45" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B45" s="7">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D45" s="7">
-        <v>34.1</v>
+        <v>34.17</v>
       </c>
       <c r="E45" s="7">
-        <v>-117.8</v>
+        <v>-118.92</v>
       </c>
       <c r="F45" s="7">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="G45" s="7">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -5153,28 +5162,28 @@
     </row>
     <row r="46" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B46" s="7">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D46" s="7">
-        <v>34.03</v>
+        <v>34.1</v>
       </c>
       <c r="E46" s="7">
-        <v>-119.77</v>
+        <v>-117.8</v>
       </c>
       <c r="F46" s="7">
-        <v>16.899999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="G46" s="7">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -5245,28 +5254,28 @@
     </row>
     <row r="47" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B47" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D47" s="7">
         <v>34.03</v>
       </c>
       <c r="E47" s="7">
-        <v>-120.3</v>
+        <v>-119.77</v>
       </c>
       <c r="F47" s="7">
-        <v>17</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G47" s="7">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -5337,28 +5346,28 @@
     </row>
     <row r="48" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B48" s="7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D48" s="7">
-        <v>34.020000000000003</v>
+        <v>34.03</v>
       </c>
       <c r="E48" s="7">
-        <v>-119.36</v>
+        <v>-120.3</v>
       </c>
       <c r="F48" s="7">
-        <v>16.149999999999999</v>
+        <v>17</v>
       </c>
       <c r="G48" s="7">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -5429,28 +5438,28 @@
     </row>
     <row r="49" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B49" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D49" s="7">
-        <v>34</v>
+        <v>34.020000000000003</v>
       </c>
       <c r="E49" s="7">
-        <v>-118.8</v>
+        <v>-119.36</v>
       </c>
       <c r="F49" s="7">
-        <v>15</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="G49" s="7">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -5521,28 +5530,28 @@
     </row>
     <row r="50" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B50" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D50" s="7">
-        <v>33.979999999999997</v>
+        <v>34</v>
       </c>
       <c r="E50" s="7">
-        <v>-119.73</v>
+        <v>-118.8</v>
       </c>
       <c r="F50" s="7">
-        <v>15.8</v>
+        <v>15</v>
       </c>
       <c r="G50" s="7">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -5613,28 +5622,28 @@
     </row>
     <row r="51" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B51" s="7">
         <v>26</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D51" s="7">
-        <v>33.950000000000003</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="E51" s="7">
-        <v>-120.1</v>
+        <v>-119.73</v>
       </c>
       <c r="F51" s="7">
-        <v>18.100000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="G51" s="7">
-        <v>0.68</v>
+        <v>0.16</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -5705,28 +5714,28 @@
     </row>
     <row r="52" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B52" s="7">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D52" s="7">
-        <v>33.78</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="E52" s="7">
-        <v>-117.79</v>
+        <v>-120.1</v>
       </c>
       <c r="F52" s="7">
-        <v>11.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G52" s="7">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -5797,28 +5806,28 @@
     </row>
     <row r="53" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B53" s="7">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D53" s="7">
-        <v>33.75</v>
+        <v>33.78</v>
       </c>
       <c r="E53" s="7">
-        <v>-118.35</v>
+        <v>-117.79</v>
       </c>
       <c r="F53" s="7">
-        <v>14.9</v>
+        <v>11.2</v>
       </c>
       <c r="G53" s="7">
-        <v>2.2000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>56</v>
+        <v>124</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -5889,28 +5898,28 @@
     </row>
     <row r="54" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B54" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D54" s="7">
-        <v>33.6</v>
+        <v>33.75</v>
       </c>
       <c r="E54" s="7">
-        <v>-117.8</v>
+        <v>-118.35</v>
       </c>
       <c r="F54" s="7">
-        <v>15.8</v>
+        <v>14.9</v>
       </c>
       <c r="G54" s="7">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -5981,28 +5990,28 @@
     </row>
     <row r="55" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B55" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D55" s="7">
-        <v>33.46</v>
+        <v>33.6</v>
       </c>
       <c r="E55" s="7">
-        <v>-119.04</v>
+        <v>-117.8</v>
       </c>
       <c r="F55" s="7">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="G55" s="7">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -6073,28 +6082,28 @@
     </row>
     <row r="56" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B56" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D56" s="7">
-        <v>33.380000000000003</v>
+        <v>33.46</v>
       </c>
       <c r="E56" s="7">
-        <v>-118.42</v>
+        <v>-119.04</v>
       </c>
       <c r="F56" s="7">
-        <v>17.2</v>
+        <v>15.5</v>
       </c>
       <c r="G56" s="7">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -6165,28 +6174,28 @@
     </row>
     <row r="57" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B57" s="7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D57" s="7">
-        <v>32.92</v>
+        <v>33.380000000000003</v>
       </c>
       <c r="E57" s="7">
-        <v>-118.5</v>
+        <v>-118.42</v>
       </c>
       <c r="F57" s="7">
-        <v>15.15</v>
+        <v>17.2</v>
       </c>
       <c r="G57" s="7">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -6257,28 +6266,28 @@
     </row>
     <row r="58" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B58" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D58" s="7">
-        <v>32.75</v>
+        <v>32.92</v>
       </c>
       <c r="E58" s="7">
-        <v>-116.09</v>
+        <v>-118.5</v>
       </c>
       <c r="F58" s="7">
-        <v>19</v>
+        <v>15.15</v>
       </c>
       <c r="G58" s="7">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -6349,28 +6358,28 @@
     </row>
     <row r="59" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B59" s="7">
         <v>41</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D59" s="7">
-        <v>32.479999999999997</v>
+        <v>32.75</v>
       </c>
       <c r="E59" s="7">
-        <v>-117.1</v>
+        <v>-116.09</v>
       </c>
       <c r="F59" s="7">
-        <v>16.14</v>
+        <v>19</v>
       </c>
       <c r="G59" s="7">
-        <v>0.12</v>
+        <v>2.6</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -6439,6 +6448,98 @@
       <c r="BV59" s="9"/>
       <c r="BW59" s="9"/>
     </row>
+    <row r="60" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="7">
+        <v>41</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="7">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="E60" s="7">
+        <v>-117.1</v>
+      </c>
+      <c r="F60" s="7">
+        <v>16.14</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="4"/>
+      <c r="AH60" s="4"/>
+      <c r="AI60" s="4"/>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
+      <c r="AN60" s="4"/>
+      <c r="AO60" s="4"/>
+      <c r="AP60" s="4"/>
+      <c r="AQ60" s="4"/>
+      <c r="AR60" s="4"/>
+      <c r="AS60" s="4"/>
+      <c r="AT60" s="4"/>
+      <c r="AU60" s="4"/>
+      <c r="AV60" s="4"/>
+      <c r="AW60" s="4"/>
+      <c r="AX60" s="4"/>
+      <c r="AY60" s="4"/>
+      <c r="AZ60" s="4"/>
+      <c r="BA60" s="4"/>
+      <c r="BB60" s="4"/>
+      <c r="BC60" s="4"/>
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+      <c r="BF60" s="4"/>
+      <c r="BG60" s="4"/>
+      <c r="BH60" s="4"/>
+      <c r="BI60" s="4"/>
+      <c r="BJ60" s="4"/>
+      <c r="BK60" s="4"/>
+      <c r="BL60" s="4"/>
+      <c r="BM60" s="4"/>
+      <c r="BN60" s="4"/>
+      <c r="BO60" s="4"/>
+      <c r="BP60" s="4"/>
+      <c r="BQ60" s="4"/>
+      <c r="BR60" s="4"/>
+      <c r="BS60" s="8"/>
+      <c r="BT60" s="9"/>
+      <c r="BU60" s="9"/>
+      <c r="BV60" s="9"/>
+      <c r="BW60" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Supplement/TABLE_S4.xlsx
+++ b/Supplement/TABLE_S4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Coast_Range_2024/Supplement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eanttila/Documents/GitHub/Anttila_et_al_Coast_Range_2025/Supplement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AA181-4CEE-154B-B567-5C96F8744D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836F3991-E318-BD4B-94BB-13C510071DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38200" yWindow="-28260" windowWidth="22040" windowHeight="17360" xr2:uid="{34C275C4-9001-D545-9BDE-3BE782608C09}"/>
+    <workbookView xWindow="23300" yWindow="-28300" windowWidth="37000" windowHeight="17360" xr2:uid="{34C275C4-9001-D545-9BDE-3BE782608C09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -522,13 +522,58 @@
   </si>
   <si>
     <t>K-Ar,reported in Coleman et al., 2022</t>
+  </si>
+  <si>
+    <t>IR22-1</t>
+  </si>
+  <si>
+    <t>MT24-1</t>
+  </si>
+  <si>
+    <t>10*</t>
+  </si>
+  <si>
+    <t>Moraga Fm</t>
+  </si>
+  <si>
+    <t>Upper Orinda Formation</t>
+  </si>
+  <si>
+    <t>Burdell Mountain</t>
+  </si>
+  <si>
+    <t>Northbrae Rhyolite</t>
+  </si>
+  <si>
+    <t>BM22-1</t>
+  </si>
+  <si>
+    <t>PVT1</t>
+  </si>
+  <si>
+    <t>Palos Verdes Portuguese Tuff</t>
+  </si>
+  <si>
+    <t>zircon_TIMS, Gerasimov et al., 2024</t>
+  </si>
+  <si>
+    <t>zircon_LA-ICPMS, Henschel et al., 2024</t>
+  </si>
+  <si>
+    <t>Other zircon U-Pb ages:</t>
+  </si>
+  <si>
+    <t>zircon_LA-ICPMS, Fenton, 2018</t>
+  </si>
+  <si>
+    <t>OR24-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -561,6 +606,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -582,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -642,11 +694,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,6 +769,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,10 +1128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33588ED0-B73E-F04D-843C-B5D200C42912}">
-  <dimension ref="A1:BW60"/>
+  <dimension ref="A1:BW68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,7 +1245,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="7">
-        <v>8.3121589999999994</v>
+        <v>38.312159000000001</v>
       </c>
       <c r="E2" s="7">
         <v>-122.66711100000001</v>
@@ -6449,30 +6562,31 @@
       <c r="BW59" s="9"/>
     </row>
     <row r="60" spans="1:75" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="15">
         <v>41</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="15">
         <v>32.479999999999997</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="15">
         <v>-117.1</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="15">
         <v>16.14</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="15">
         <v>0.12</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="15" t="s">
         <v>124</v>
       </c>
+      <c r="I60" s="15"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
@@ -6540,6 +6654,223 @@
       <c r="BV60" s="9"/>
       <c r="BW60" s="9"/>
     </row>
+    <row r="61" spans="1:75" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+      <c r="AP61" s="4"/>
+      <c r="AQ61" s="4"/>
+      <c r="AR61" s="4"/>
+      <c r="AS61" s="4"/>
+      <c r="AT61" s="4"/>
+      <c r="AU61" s="4"/>
+      <c r="AV61" s="4"/>
+      <c r="AW61" s="4"/>
+      <c r="AX61" s="4"/>
+      <c r="AY61" s="4"/>
+      <c r="AZ61" s="4"/>
+      <c r="BA61" s="4"/>
+      <c r="BB61" s="4"/>
+      <c r="BC61" s="4"/>
+      <c r="BD61" s="4"/>
+      <c r="BE61" s="4"/>
+      <c r="BF61" s="4"/>
+      <c r="BG61" s="4"/>
+      <c r="BH61" s="4"/>
+      <c r="BI61" s="4"/>
+      <c r="BJ61" s="4"/>
+      <c r="BK61" s="4"/>
+      <c r="BL61" s="4"/>
+      <c r="BM61" s="4"/>
+      <c r="BN61" s="4"/>
+      <c r="BO61" s="4"/>
+      <c r="BP61" s="4"/>
+      <c r="BQ61" s="4"/>
+      <c r="BR61" s="4"/>
+      <c r="BS61" s="4"/>
+      <c r="BT61" s="4"/>
+      <c r="BU61" s="4"/>
+      <c r="BV61" s="4"/>
+      <c r="BW61" s="4"/>
+    </row>
+    <row r="62" spans="1:75" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="16">
+        <v>11</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="16">
+        <v>37.866109999999999</v>
+      </c>
+      <c r="E62" s="16">
+        <v>-122.2069</v>
+      </c>
+      <c r="F62" s="16">
+        <v>9.9740000000000002</v>
+      </c>
+      <c r="G62" s="16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="1:75" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="14">
+        <v>11</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D63" s="14">
+        <v>37.865270000000002</v>
+      </c>
+      <c r="E63" s="14">
+        <v>-122.2089</v>
+      </c>
+      <c r="F63" s="14">
+        <v>10.093999999999999</v>
+      </c>
+      <c r="G63" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H63" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" s="14"/>
+    </row>
+    <row r="64" spans="1:75" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B64" s="14">
+        <v>10</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="14">
+        <v>38.145591000000003</v>
+      </c>
+      <c r="E64" s="14">
+        <v>-122.5909</v>
+      </c>
+      <c r="F64" s="14">
+        <v>11.065</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I64" s="14"/>
+    </row>
+    <row r="65" spans="1:9" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65" s="14">
+        <v>37.892184</v>
+      </c>
+      <c r="E65" s="14">
+        <v>-122.27306</v>
+      </c>
+      <c r="F65" s="14">
+        <v>11.095000000000001</v>
+      </c>
+      <c r="G65" s="14">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I65" s="14"/>
+    </row>
+    <row r="66" spans="1:9" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B66" s="14">
+        <v>45</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D66" s="14">
+        <v>33.734678000000002</v>
+      </c>
+      <c r="E66" s="14">
+        <v>-118.368442</v>
+      </c>
+      <c r="F66" s="14">
+        <v>14.75</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="H66" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I66" s="14"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B68"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
